--- a/data/factor_data/regression_stats/stats_EA.xlsx
+++ b/data/factor_data/regression_stats/stats_EA.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.005820355889202431</v>
+        <v>-0.005629605587214672</v>
       </c>
       <c r="C2">
-        <v>-7.069251177492393</v>
+        <v>-6.981522583518973</v>
       </c>
       <c r="D2">
-        <v>-0.006307361989126272</v>
+        <v>-0.00609075161739942</v>
       </c>
       <c r="E2">
-        <v>-8.415548377604495</v>
+        <v>-8.299312233235151</v>
       </c>
       <c r="F2">
-        <v>-0.006319867331174363</v>
+        <v>-0.00613267846790303</v>
       </c>
       <c r="G2">
-        <v>-8.441029408654902</v>
+        <v>-8.398314132875154</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7334990022891379</v>
+        <v>0.7287688695247195</v>
       </c>
       <c r="C3">
-        <v>8.979960576125029</v>
+        <v>9.043208169254623</v>
       </c>
       <c r="D3">
-        <v>0.8066485521667527</v>
+        <v>0.7944196949240814</v>
       </c>
       <c r="E3">
-        <v>11.03073964654588</v>
+        <v>11.02482168026655</v>
       </c>
       <c r="F3">
-        <v>0.8060603889583307</v>
+        <v>0.8093360391863502</v>
       </c>
       <c r="G3">
-        <v>10.04101560477464</v>
+        <v>10.15964876469488</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0.2525805021350166</v>
+        <v>0.2942389146580259</v>
       </c>
       <c r="E4">
-        <v>1.694284997524536</v>
+        <v>2.044353433217833</v>
       </c>
       <c r="F4">
-        <v>0.2661441652907756</v>
+        <v>0.3262270398554712</v>
       </c>
       <c r="G4">
-        <v>1.679005821871933</v>
+        <v>2.105967207266781</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-0.7575593059229522</v>
+        <v>-0.7629439956582631</v>
       </c>
       <c r="E5">
-        <v>-6.932432687922619</v>
+        <v>-7.100552942425893</v>
       </c>
       <c r="F5">
-        <v>-0.7776588973917687</v>
+        <v>-0.8280485825962094</v>
       </c>
       <c r="G5">
-        <v>-5.977628831240311</v>
+        <v>-6.535513826862138</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0.08377830231191144</v>
+        <v>0.06052303979833201</v>
       </c>
       <c r="G6">
-        <v>0.3734718891905962</v>
+        <v>0.2835274963773983</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>0.01527547351898646</v>
+        <v>0.2206117584424972</v>
       </c>
       <c r="G7">
-        <v>0.06493383788877675</v>
+        <v>0.9364789928505504</v>
       </c>
     </row>
   </sheetData>
